--- a/doc/excel/培训/[sample_cetUpperTrain]上级调训录入样表.xlsx
+++ b/doc/excel/培训/[sample_cetUpperTrain]上级调训录入样表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\廖敏工作文件夹\全部高校\组工一体化平台数据录入样表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\owip\doc\excel\培训\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC76A10D-D126-47B5-B6E4-67E0666D4EA4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3859343B-695D-4EB9-998C-75D875E0D062}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1095" yWindow="1485" windowWidth="26235" windowHeight="13230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,22 @@
     <author>min liaom</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{481386CD-CDF8-4BD5-8DEF-A4FF27493650}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{60F15096-AE3D-432C-922A-944FE73DD18A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>从“培训综合管理-通用设置-参训人员类型”中选择填写</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{481386CD-CDF8-4BD5-8DEF-A4FF27493650}">
       <text>
         <r>
           <rPr>
@@ -40,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{29BA578F-54A3-4298-976D-D6984F741A3D}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{29BA578F-54A3-4298-976D-D6984F741A3D}">
       <text>
         <r>
           <rPr>
@@ -51,11 +66,11 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>请在参数设置中先设置好</t>
+          <t>从“培训综合管理-通用设置-培训班类型”中选择填写</t>
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{9FB5390A-8AEA-48BF-AF7F-02AF0A32AC92}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{9FB5390A-8AEA-48BF-AF7F-02AF0A32AC92}">
       <text>
         <r>
           <rPr>
@@ -75,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>备注</t>
   </si>
@@ -87,10 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2019</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>培训班主办方</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -173,23 +184,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>职务属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>党委组织部副部长</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>机关副职</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>培训形式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线下培训</t>
+  </si>
+  <si>
+    <t>是否
+支部书记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否
+双肩挑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参训人员类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处级干部</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -255,6 +290,13 @@
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -282,7 +324,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -342,6 +384,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -657,134 +705,164 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12.875" style="6" customWidth="1"/>
     <col min="2" max="2" width="11.875" customWidth="1"/>
-    <col min="3" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="10.625" customWidth="1"/>
-    <col min="6" max="6" width="22.625" customWidth="1"/>
-    <col min="7" max="7" width="18.75" customWidth="1"/>
-    <col min="8" max="8" width="28.375" customWidth="1"/>
-    <col min="9" max="10" width="9.75" customWidth="1"/>
-    <col min="11" max="11" width="9.75" style="16" customWidth="1"/>
-    <col min="12" max="12" width="22.75" style="16" customWidth="1"/>
-    <col min="13" max="13" width="14.25" style="16" customWidth="1"/>
-    <col min="14" max="14" width="15.125" style="16" customWidth="1"/>
-    <col min="15" max="15" width="13.25" style="16" customWidth="1"/>
-    <col min="16" max="16" width="21.125" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="9.625" customWidth="1"/>
+    <col min="5" max="6" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="8.75" customWidth="1"/>
+    <col min="8" max="8" width="22.625" customWidth="1"/>
+    <col min="9" max="9" width="18.75" customWidth="1"/>
+    <col min="10" max="10" width="28.375" customWidth="1"/>
+    <col min="11" max="11" width="13.875" customWidth="1"/>
+    <col min="12" max="13" width="9.75" customWidth="1"/>
+    <col min="14" max="14" width="9.75" style="16" customWidth="1"/>
+    <col min="15" max="15" width="22.75" style="16" customWidth="1"/>
+    <col min="16" max="16" width="14.25" style="16" customWidth="1"/>
+    <col min="17" max="17" width="15.125" style="16" customWidth="1"/>
+    <col min="18" max="18" width="13.25" style="16" customWidth="1"/>
+    <col min="19" max="19" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" ht="30.75" customHeight="1">
+    <row r="1" spans="1:19" s="3" customFormat="1" ht="30.75" customHeight="1">
       <c r="A1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="9" t="s">
+      <c r="E2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="15">
+        <v>2019</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="14" t="s">
+      <c r="J2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="7">
+        <v>43216</v>
+      </c>
+      <c r="M2" s="7">
+        <v>43217</v>
+      </c>
+      <c r="N2" s="15">
+        <v>12</v>
+      </c>
+      <c r="O2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" s="14" t="s">
+      <c r="P2" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="7">
-        <v>43216</v>
-      </c>
-      <c r="J2" s="7">
-        <v>43217</v>
-      </c>
-      <c r="K2" s="15">
-        <v>12</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M1048576" xr:uid="{EB15CF69-4B81-4DB2-ADC7-BF5E0CC35A03}">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P1048576" xr:uid="{EB15CF69-4B81-4DB2-ADC7-BF5E0CC35A03}">
       <formula1>"党委组织部,其他部门派出"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2" xr:uid="{17EAB4DD-8149-4461-A64C-AF4B0889A175}">
+      <formula1>"线下培训,线上培训"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 E2" xr:uid="{B2CBB9A7-6053-45E7-963B-200CFBB2DB75}">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{637FC34C-D3C3-43A5-9C4B-BD68D1252C3A}">
+      <formula1>"处级干部,优秀年轻干部"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
